--- a/output/1Y_P35_1VAL-D.xlsx
+++ b/output/1Y_P35_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>14.9338</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>669.6219</v>
       </c>
-      <c r="G2" s="1">
-        <v>669.6219</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.104300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.9338</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.104300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>15.9313</v>
       </c>
+      <c r="E3" s="1">
+        <v>669.6219</v>
+      </c>
       <c r="F3" s="1">
         <v>627.6952</v>
       </c>
-      <c r="G3" s="1">
-        <v>1297.3171</v>
-      </c>
       <c r="H3" s="1">
-        <v>20560.7895</v>
+        <v>10612.6371</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.4164</v>
+        <v>10612.6371</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.9338</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20560.7895</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0307</v>
+        <v>0.0613</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.0207</v>
       </c>
+      <c r="E4" s="1">
+        <v>1297.3171</v>
+      </c>
       <c r="F4" s="1">
         <v>587.5199</v>
       </c>
-      <c r="G4" s="1">
-        <v>1884.837</v>
-      </c>
       <c r="H4" s="1">
-        <v>31914.814</v>
+        <v>21966.692</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.9165</v>
+        <v>21966.692</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.4164</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31914.814</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0443</v>
+        <v>0.06569999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.4608</v>
       </c>
+      <c r="E5" s="1">
+        <v>1884.837</v>
+      </c>
       <c r="F5" s="1">
         <v>572.7114</v>
       </c>
-      <c r="G5" s="1">
-        <v>2457.5484</v>
-      </c>
       <c r="H5" s="1">
-        <v>42688.108</v>
+        <v>32739.9957</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.2764</v>
+        <v>32739.9957</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.9165</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42688.108</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0184</v>
+        <v>0.0242</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>16.886</v>
       </c>
+      <c r="E6" s="1">
+        <v>2457.5484</v>
+      </c>
       <c r="F6" s="1">
         <v>592.2066</v>
       </c>
-      <c r="G6" s="1">
-        <v>3049.755</v>
-      </c>
       <c r="H6" s="1">
-        <v>51231.3095</v>
+        <v>41283.1276</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.3948</v>
+        <v>41283.1276</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.2764</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51231.3095</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0276</v>
+        <v>-0.0341</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.59</v>
       </c>
+      <c r="E7" s="1">
+        <v>3049.755</v>
+      </c>
       <c r="F7" s="1">
         <v>568.5048</v>
       </c>
-      <c r="G7" s="1">
-        <v>3618.2598</v>
-      </c>
       <c r="H7" s="1">
-        <v>63315.2053</v>
+        <v>53367.0529</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.5826</v>
+        <v>53367.0529</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.3948</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63315.2053</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.034</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>15.0121</v>
       </c>
+      <c r="E8" s="1">
+        <v>3618.2598</v>
+      </c>
       <c r="F8" s="1">
         <v>666.1292999999999</v>
       </c>
-      <c r="G8" s="1">
-        <v>4284.3892</v>
-      </c>
       <c r="H8" s="1">
-        <v>63983.9246</v>
+        <v>54035.8161</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.3384</v>
+        <v>54035.8161</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>16.5826</v>
+      </c>
+      <c r="M8" s="1">
         <v>3.57</v>
       </c>
-      <c r="L8" s="1">
-        <v>11625.4689</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>1625.4689</v>
+        <v>9798.862800000001</v>
       </c>
       <c r="O8" s="1">
-        <v>11625.4689</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>75609.39350000001</v>
+        <v>-201.1372</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0313</v>
+        <v>-0.1473</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>15.3645</v>
       </c>
+      <c r="E9" s="1">
+        <v>4284.3892</v>
+      </c>
       <c r="F9" s="1">
-        <v>802.1799</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5086.5691</v>
+        <v>778.403</v>
       </c>
       <c r="H9" s="1">
-        <v>77747.1915</v>
+        <v>65486.0315</v>
       </c>
       <c r="I9" s="1">
-        <v>82325.0938</v>
+        <v>9798.862800000001</v>
       </c>
       <c r="J9" s="1">
-        <v>16.1848</v>
+        <v>75284.8943</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71959.7726</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.7958</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-12325.0938</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>9300.375099999999</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>87047.56660000001</v>
+        <v>-11959.7726</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0168</v>
+        <v>0.1757</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>16.4953</v>
       </c>
+      <c r="E10" s="1">
+        <v>5062.7921</v>
+      </c>
       <c r="F10" s="1">
-        <v>747.1882000000001</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5833.7573</v>
+        <v>725.0412</v>
       </c>
       <c r="H10" s="1">
-        <v>95730.2075</v>
+        <v>83078.9002</v>
       </c>
       <c r="I10" s="1">
-        <v>94650.1875</v>
+        <v>7839.0903</v>
       </c>
       <c r="J10" s="1">
-        <v>16.2246</v>
+        <v>90917.9904</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>83919.5451</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.5757</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-12325.0938</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>6975.2813</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>102705.4888</v>
+        <v>-11959.7726</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0583</v>
+        <v>0.06610000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>16.9701</v>
       </c>
+      <c r="E11" s="1">
+        <v>5787.8334</v>
+      </c>
       <c r="F11" s="1">
-        <v>726.2829</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6560.0402</v>
+        <v>704.7556</v>
       </c>
       <c r="H11" s="1">
-        <v>110747.2554</v>
+        <v>97710.78170000001</v>
       </c>
       <c r="I11" s="1">
-        <v>106975.2813</v>
+        <v>5879.3177</v>
       </c>
       <c r="J11" s="1">
-        <v>16.3071</v>
+        <v>103590.0994</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>95879.3177</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.5657</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-12325.0938</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>4650.1875</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>115397.4429</v>
+        <v>-11959.7726</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0239</v>
+        <v>0.0265</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.9905</v>
       </c>
+      <c r="E12" s="1">
+        <v>6492.5889</v>
+      </c>
       <c r="F12" s="1">
-        <v>685.0890000000001</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7245.1292</v>
+        <v>664.7827</v>
       </c>
       <c r="H12" s="1">
-        <v>129667.5272</v>
+        <v>116199.1628</v>
       </c>
       <c r="I12" s="1">
-        <v>119300.3751</v>
+        <v>3919.5451</v>
       </c>
       <c r="J12" s="1">
-        <v>16.4663</v>
+        <v>120118.7079</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>107839.0903</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.6096</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-12325.0938</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>2325.0938</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>131992.621</v>
+        <v>-11959.7726</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0526</v>
+        <v>0.0575</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>18.2369</v>
       </c>
+      <c r="E13" s="1">
+        <v>7157.3716</v>
+      </c>
       <c r="F13" s="1">
-        <v>675.8327</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7920.962</v>
+        <v>655.8007</v>
       </c>
       <c r="H13" s="1">
-        <v>143704.4684</v>
+        <v>129851.1829</v>
       </c>
       <c r="I13" s="1">
-        <v>131625.4689</v>
+        <v>1959.7726</v>
       </c>
       <c r="J13" s="1">
-        <v>16.6174</v>
+        <v>131810.9555</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>119798.8628</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.7378</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-12325.0938</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>143704.4684</v>
+        <v>-11959.7726</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0121</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>19.1395</v>
       </c>
+      <c r="E14" s="1">
+        <v>7813.1724</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7920.962</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-7157.3716</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>148764.3642</v>
       </c>
       <c r="I14" s="1">
-        <v>131625.4689</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.6174</v>
+        <v>148764.3642</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>119798.8628</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.3329</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>150816.7001</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>150816.7001</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>150816.7001</v>
+        <v>136277.7869</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0188</v>
+        <v>0.049</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>14.9338</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>669.6219</v>
       </c>
       <c r="G2" s="1">
-        <v>669.6219</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.104300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.9338</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.104300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>15.9313</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>669.6219</v>
       </c>
       <c r="F3" s="1">
         <v>592.3112</v>
       </c>
       <c r="G3" s="1">
-        <v>1261.9332</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10612.6371</v>
       </c>
       <c r="I3" s="1">
-        <v>19436.2878</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.402</v>
+        <v>10612.6371</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9436.2878</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.092</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9436.2878</v>
       </c>
-      <c r="O3" s="1">
-        <v>563.7122000000001</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20563.7122</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0309</v>
+        <v>0.0613</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.0207</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1261.9332</v>
       </c>
       <c r="F4" s="1">
         <v>509.818</v>
       </c>
       <c r="G4" s="1">
-        <v>1771.7512</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>21367.557</v>
       </c>
       <c r="I4" s="1">
-        <v>28113.7478</v>
+        <v>563.7122000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>15.8678</v>
+        <v>21931.2692</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18113.7478</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.354</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8677.459999999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>1886.2522</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31886.2522</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0433</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.4608</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1771.7512</v>
       </c>
       <c r="F5" s="1">
         <v>531.0432</v>
       </c>
       <c r="G5" s="1">
-        <v>2302.7944</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30775.6727</v>
       </c>
       <c r="I5" s="1">
-        <v>37386.1876</v>
+        <v>1886.2522</v>
       </c>
       <c r="J5" s="1">
-        <v>16.2351</v>
+        <v>32661.9249</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27386.1876</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.4571</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9272.4398</v>
       </c>
-      <c r="O5" s="1">
-        <v>2613.8124</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42613.8124</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0174</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>16.886</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2302.7944</v>
       </c>
       <c r="F6" s="1">
         <v>673.6618</v>
       </c>
       <c r="G6" s="1">
-        <v>2976.4562</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>38683.4924</v>
       </c>
       <c r="I6" s="1">
-        <v>48761.6406</v>
+        <v>2613.8124</v>
       </c>
       <c r="J6" s="1">
-        <v>16.3824</v>
+        <v>41297.3048</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38761.6406</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.8324</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11375.453</v>
       </c>
-      <c r="O6" s="1">
-        <v>1238.3594</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51238.3594</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0261</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.59</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2976.4562</v>
       </c>
       <c r="F7" s="1">
         <v>452.3503</v>
       </c>
       <c r="G7" s="1">
-        <v>3428.8065</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>52084.4123</v>
       </c>
       <c r="I7" s="1">
-        <v>56718.4827</v>
+        <v>1238.3594</v>
       </c>
       <c r="J7" s="1">
-        <v>16.5418</v>
+        <v>53322.7717</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46718.4827</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.696</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7956.8421</v>
       </c>
-      <c r="O7" s="1">
-        <v>3281.5173</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63281.5173</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0334</v>
+        <v>0.0395</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>15.0121</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3428.8065</v>
       </c>
       <c r="F8" s="1">
         <v>884.7208000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>4313.5274</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>64419.0803</v>
+        <v>51206.4827</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>3281.5173</v>
       </c>
       <c r="J8" s="1">
-        <v>16.228</v>
+        <v>54488.0001</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>17.4988</v>
+      </c>
+      <c r="M8" s="1">
         <v>3.57</v>
       </c>
-      <c r="L8" s="1">
-        <v>11016.7554</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-2264.7619</v>
+        <v>9563.3539</v>
       </c>
       <c r="O8" s="1">
-        <v>11016.7554</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>75435.8358</v>
+        <v>-3718.1635</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0294</v>
+        <v>-0.1395</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>15.3645</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4313.5274</v>
       </c>
       <c r="F9" s="1">
         <v>920.4306</v>
       </c>
       <c r="G9" s="1">
-        <v>5233.9579</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>65931.40300000001</v>
       </c>
       <c r="I9" s="1">
-        <v>84141.9553</v>
+        <v>9563.3539</v>
       </c>
       <c r="J9" s="1">
-        <v>16.0762</v>
+        <v>75494.75689999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>74141.9553</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.1882</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-14141.9553</v>
       </c>
-      <c r="O9" s="1">
-        <v>6874.8001</v>
-      </c>
-      <c r="P9" s="1">
-        <v>86874.80009999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0168</v>
+        <v>0.1707</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>16.4953</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5233.9579</v>
       </c>
       <c r="F10" s="1">
         <v>250.603</v>
       </c>
       <c r="G10" s="1">
-        <v>5484.561</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>85887.6793</v>
       </c>
       <c r="I10" s="1">
-        <v>88275.7277</v>
+        <v>5421.3986</v>
       </c>
       <c r="J10" s="1">
-        <v>16.0953</v>
+        <v>91309.0778</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78275.7277</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.9554</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-4133.7724</v>
       </c>
-      <c r="O10" s="1">
-        <v>12741.0278</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102741.0278</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0606</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>16.9701</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5484.561</v>
       </c>
       <c r="F11" s="1">
         <v>438.8727</v>
       </c>
       <c r="G11" s="1">
-        <v>5923.4337</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>92590.9066</v>
       </c>
       <c r="I11" s="1">
-        <v>95723.44190000001</v>
+        <v>11287.6262</v>
       </c>
       <c r="J11" s="1">
-        <v>16.1601</v>
+        <v>103878.5328</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>85723.44190000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.63</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7447.7142</v>
       </c>
-      <c r="O11" s="1">
-        <v>15293.3136</v>
-      </c>
-      <c r="P11" s="1">
-        <v>115293.3136</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0226</v>
+        <v>0.0254</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.9905</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5923.4337</v>
       </c>
       <c r="F12" s="1">
         <v>222.7791</v>
       </c>
       <c r="G12" s="1">
-        <v>6146.2128</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>106012.8775</v>
       </c>
       <c r="I12" s="1">
-        <v>99731.3496</v>
+        <v>13839.912</v>
       </c>
       <c r="J12" s="1">
-        <v>16.2265</v>
+        <v>119852.7896</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>89731.3496</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.1485</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-4007.9077</v>
       </c>
-      <c r="O12" s="1">
-        <v>21285.4058</v>
-      </c>
-      <c r="P12" s="1">
-        <v>131285.4058</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0478</v>
+        <v>0.0525</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>18.2369</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6146.2128</v>
       </c>
       <c r="F13" s="1">
         <v>468.1635</v>
       </c>
       <c r="G13" s="1">
-        <v>6614.3763</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>111506.4368</v>
       </c>
       <c r="I13" s="1">
-        <v>108269.2011</v>
+        <v>19832.0043</v>
       </c>
       <c r="J13" s="1">
-        <v>16.3688</v>
+        <v>131338.441</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>98269.20110000001</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.9886</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-8537.851500000001</v>
       </c>
-      <c r="O13" s="1">
-        <v>22747.5543</v>
-      </c>
-      <c r="P13" s="1">
-        <v>142747.5543</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0103</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>19.1395</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6614.3763</v>
       </c>
       <c r="F14" s="1">
         <v>-6614.3763</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125939.0485</v>
       </c>
       <c r="I14" s="1">
-        <v>108269.2011</v>
+        <v>21294.1528</v>
       </c>
       <c r="J14" s="1">
-        <v>16.3688</v>
+        <v>147233.2013</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>98269.20110000001</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.8569</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>125939.0485</v>
       </c>
-      <c r="O14" s="1">
-        <v>148686.6028</v>
-      </c>
-      <c r="P14" s="1">
-        <v>148686.6028</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0266</v>
+        <v>0.0417</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>14.9338</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>669.6219</v>
       </c>
       <c r="G2" s="1">
-        <v>669.6219</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.104300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.9338</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.104300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>15.9313</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>669.6219</v>
       </c>
       <c r="F3" s="1">
         <v>595.4661</v>
       </c>
       <c r="G3" s="1">
-        <v>1265.088</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10612.6371</v>
       </c>
       <c r="I3" s="1">
-        <v>19486.5484</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.4033</v>
+        <v>10612.6371</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9486.5484</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.167</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9486.5484</v>
       </c>
-      <c r="O3" s="1">
-        <v>513.4516</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20563.4516</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0308</v>
+        <v>0.0613</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.0207</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1265.088</v>
       </c>
       <c r="F4" s="1">
         <v>515.5367</v>
       </c>
       <c r="G4" s="1">
-        <v>1780.6247</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>21420.9759</v>
       </c>
       <c r="I4" s="1">
-        <v>28261.3444</v>
+        <v>513.4516</v>
       </c>
       <c r="J4" s="1">
-        <v>15.8716</v>
+        <v>21934.4275</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18261.3444</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.4348</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8774.796</v>
       </c>
-      <c r="O4" s="1">
-        <v>1738.6556</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31888.9056</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0434</v>
+        <v>0.0641</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.4608</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1780.6247</v>
       </c>
       <c r="F5" s="1">
         <v>539.4983</v>
       </c>
       <c r="G5" s="1">
-        <v>2320.123</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30929.8075</v>
       </c>
       <c r="I5" s="1">
-        <v>37681.4167</v>
+        <v>1738.6556</v>
       </c>
       <c r="J5" s="1">
-        <v>16.2411</v>
+        <v>32668.4631</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27681.4167</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.5459</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9420.0723</v>
       </c>
-      <c r="O5" s="1">
-        <v>2318.5833</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42619.5845</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0174</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>16.886</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2320.123</v>
       </c>
       <c r="F6" s="1">
         <v>686.2469</v>
       </c>
       <c r="G6" s="1">
-        <v>3006.37</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>38974.5869</v>
       </c>
       <c r="I6" s="1">
-        <v>49269.3827</v>
+        <v>2318.5833</v>
       </c>
       <c r="J6" s="1">
-        <v>16.3883</v>
+        <v>41293.1702</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39269.3827</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.9256</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11587.966</v>
       </c>
-      <c r="O6" s="1">
-        <v>730.6173</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51233.1236</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0263</v>
+        <v>-0.0322</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.59</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3006.37</v>
       </c>
       <c r="F7" s="1">
         <v>465.5834</v>
       </c>
       <c r="G7" s="1">
-        <v>3471.9534</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>52607.8672</v>
       </c>
       <c r="I7" s="1">
-        <v>57458.9955</v>
+        <v>730.6173</v>
       </c>
       <c r="J7" s="1">
-        <v>16.5495</v>
+        <v>53338.4845</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47458.9955</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.7861</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8189.6128</v>
       </c>
-      <c r="O7" s="1">
-        <v>2541.0045</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63296.0233</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0337</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>15.0121</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3471.9534</v>
       </c>
       <c r="F8" s="1">
         <v>835.3931</v>
       </c>
       <c r="G8" s="1">
-        <v>4307.3465</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>64326.7744</v>
+        <v>51850.847</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>2541.0045</v>
       </c>
       <c r="J8" s="1">
-        <v>16.2513</v>
+        <v>54391.8515</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>17.2813</v>
+      </c>
+      <c r="M8" s="1">
         <v>3.57</v>
       </c>
-      <c r="L8" s="1">
-        <v>11155.3864</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-1385.6181</v>
+        <v>9659.4668</v>
       </c>
       <c r="O8" s="1">
-        <v>11155.3864</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>75482.1608</v>
+        <v>-2881.5377</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0298</v>
+        <v>-0.1413</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>15.3645</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4307.3465</v>
       </c>
       <c r="F9" s="1">
         <v>1019.1274</v>
       </c>
       <c r="G9" s="1">
-        <v>5326.4739</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>65836.9301</v>
       </c>
       <c r="I9" s="1">
-        <v>85658.3823</v>
+        <v>9659.4668</v>
       </c>
       <c r="J9" s="1">
-        <v>16.0816</v>
+        <v>75496.3968</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>75658.3823</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.565</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-15658.3823</v>
       </c>
-      <c r="O9" s="1">
-        <v>5497.0041</v>
-      </c>
-      <c r="P9" s="1">
-        <v>86911.092</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0167</v>
+        <v>0.1725</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>16.4953</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5326.4739</v>
       </c>
       <c r="F10" s="1">
         <v>269.0677</v>
       </c>
       <c r="G10" s="1">
-        <v>5595.5416</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>87405.8383</v>
       </c>
       <c r="I10" s="1">
-        <v>90096.7344</v>
+        <v>4001.0845</v>
       </c>
       <c r="J10" s="1">
-        <v>16.1015</v>
+        <v>91406.9228</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80096.7344</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.0375</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-4438.3522</v>
       </c>
-      <c r="O10" s="1">
-        <v>11058.652</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102879.8103</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0616</v>
+        <v>0.06909999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>16.9701</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5595.5416</v>
       </c>
       <c r="F11" s="1">
         <v>462.9621</v>
       </c>
       <c r="G11" s="1">
-        <v>6058.5036</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>94464.4921</v>
       </c>
       <c r="I11" s="1">
-        <v>97953.247</v>
+        <v>9562.7323</v>
       </c>
       <c r="J11" s="1">
-        <v>16.1679</v>
+        <v>104027.2245</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>87953.247</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.7185</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7856.5126</v>
       </c>
-      <c r="O11" s="1">
-        <v>13202.1393</v>
-      </c>
-      <c r="P11" s="1">
-        <v>115482.4034</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0231</v>
+        <v>0.0258</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.9905</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6058.5036</v>
       </c>
       <c r="F12" s="1">
         <v>243.6925</v>
       </c>
       <c r="G12" s="1">
-        <v>6302.1962</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>108430.2511</v>
       </c>
       <c r="I12" s="1">
-        <v>102337.3978</v>
+        <v>11706.2197</v>
       </c>
       <c r="J12" s="1">
-        <v>16.2384</v>
+        <v>120136.4708</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>92337.39780000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.241</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-4384.1508</v>
       </c>
-      <c r="O12" s="1">
-        <v>18817.9885</v>
-      </c>
-      <c r="P12" s="1">
-        <v>131609.6539</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0488</v>
+        <v>0.0536</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>18.2369</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6302.1962</v>
       </c>
       <c r="F13" s="1">
         <v>497.1415</v>
       </c>
       <c r="G13" s="1">
-        <v>6799.3377</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>114336.3337</v>
       </c>
       <c r="I13" s="1">
-        <v>111403.7175</v>
+        <v>17322.0689</v>
       </c>
       <c r="J13" s="1">
-        <v>16.3845</v>
+        <v>131658.4026</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>101403.7175</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.0902</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-9066.319600000001</v>
       </c>
-      <c r="O13" s="1">
-        <v>19751.6689</v>
-      </c>
-      <c r="P13" s="1">
-        <v>143107.2926</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0106</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>19.1395</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6799.3377</v>
       </c>
       <c r="F14" s="1">
         <v>-6799.3377</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>129460.749</v>
       </c>
       <c r="I14" s="1">
-        <v>111403.7175</v>
+        <v>18255.7493</v>
       </c>
       <c r="J14" s="1">
-        <v>16.3845</v>
+        <v>147716.4983</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>101403.7175</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.9138</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>129460.749</v>
       </c>
-      <c r="O14" s="1">
-        <v>149212.4179</v>
-      </c>
-      <c r="P14" s="1">
-        <v>149212.4179</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0254</v>
+        <v>0.0428</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>14.9338</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>669.6219</v>
       </c>
       <c r="G2" s="1">
-        <v>669.6219</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.104300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.9338</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.104300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>15.9313</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>669.6219</v>
       </c>
       <c r="F3" s="1">
         <v>598.6209</v>
       </c>
       <c r="G3" s="1">
-        <v>1268.2428</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10612.6371</v>
       </c>
       <c r="I3" s="1">
-        <v>19536.809</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.4046</v>
+        <v>10612.6371</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9536.808999999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.2421</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9536.808999999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>463.191</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20563.191</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0308</v>
+        <v>0.0613</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.0207</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1268.2428</v>
       </c>
       <c r="F4" s="1">
         <v>521.2849</v>
       </c>
       <c r="G4" s="1">
-        <v>1789.5278</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>21474.3947</v>
       </c>
       <c r="I4" s="1">
-        <v>28409.4437</v>
+        <v>463.191</v>
       </c>
       <c r="J4" s="1">
-        <v>15.8754</v>
+        <v>21937.5858</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18409.4437</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.5157</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8872.634700000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>1590.5563</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31891.5563</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0435</v>
+        <v>0.0643</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.4608</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1789.5278</v>
       </c>
       <c r="F5" s="1">
         <v>548.0394</v>
       </c>
       <c r="G5" s="1">
-        <v>2337.5672</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31084.4553</v>
       </c>
       <c r="I5" s="1">
-        <v>37978.6508</v>
+        <v>1590.5563</v>
       </c>
       <c r="J5" s="1">
-        <v>16.2471</v>
+        <v>32675.0116</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27978.6508</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.6347</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9569.2071</v>
       </c>
-      <c r="O5" s="1">
-        <v>2021.3492</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42625.3592</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0175</v>
+        <v>0.0231</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>16.886</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2337.5672</v>
       </c>
       <c r="F6" s="1">
         <v>699.0164</v>
       </c>
       <c r="G6" s="1">
-        <v>3036.5836</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>39267.6228</v>
       </c>
       <c r="I6" s="1">
-        <v>49782.242</v>
+        <v>2021.3492</v>
       </c>
       <c r="J6" s="1">
-        <v>16.3942</v>
+        <v>41288.972</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39782.242</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.0187</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11803.5912</v>
       </c>
-      <c r="O6" s="1">
-        <v>217.758</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51227.8081</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0266</v>
+        <v>-0.0325</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.59</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3036.5836</v>
       </c>
       <c r="F7" s="1">
         <v>479.0946</v>
       </c>
       <c r="G7" s="1">
-        <v>3515.6783</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>53136.5696</v>
       </c>
       <c r="I7" s="1">
-        <v>58209.5164</v>
+        <v>217.758</v>
       </c>
       <c r="J7" s="1">
-        <v>16.5571</v>
+        <v>53354.3276</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48209.5164</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.8762</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8427.2744</v>
       </c>
-      <c r="O7" s="1">
-        <v>1790.4836</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63310.6342</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.034</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>15.0121</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3515.6783</v>
       </c>
       <c r="F8" s="1">
         <v>785.3987</v>
       </c>
       <c r="G8" s="1">
-        <v>4301.0769</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>64233.1432</v>
+        <v>52503.8422</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>1790.4836</v>
       </c>
       <c r="J8" s="1">
-        <v>16.275</v>
+        <v>54294.3257</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>17.0664</v>
+      </c>
+      <c r="M8" s="1">
         <v>3.57</v>
       </c>
-      <c r="L8" s="1">
-        <v>11295.8742</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-494.6093</v>
+        <v>9756.5432</v>
       </c>
       <c r="O8" s="1">
-        <v>11295.8742</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>75529.0174</v>
+        <v>-2033.9404</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0303</v>
+        <v>-0.143</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>15.3645</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4301.0769</v>
       </c>
       <c r="F9" s="1">
         <v>1119.7794</v>
       </c>
       <c r="G9" s="1">
-        <v>5420.8564</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>65741.1007</v>
       </c>
       <c r="I9" s="1">
-        <v>87204.85129999999</v>
+        <v>9756.5432</v>
       </c>
       <c r="J9" s="1">
-        <v>16.0869</v>
+        <v>75497.6439</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>77204.85129999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9501</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-17204.8513</v>
       </c>
-      <c r="O9" s="1">
-        <v>4091.0229</v>
-      </c>
-      <c r="P9" s="1">
-        <v>86947.7285</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0166</v>
+        <v>0.1743</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>16.4953</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5420.8564</v>
       </c>
       <c r="F10" s="1">
         <v>288.2835</v>
       </c>
       <c r="G10" s="1">
-        <v>5709.1399</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>88954.62699999999</v>
       </c>
       <c r="I10" s="1">
-        <v>91960.1741</v>
+        <v>2551.6919</v>
       </c>
       <c r="J10" s="1">
-        <v>16.1075</v>
+        <v>91506.3189</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81960.1741</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.1194</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-4755.3228</v>
       </c>
-      <c r="O10" s="1">
-        <v>9335.7001</v>
-      </c>
-      <c r="P10" s="1">
-        <v>103020.9728</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0626</v>
+        <v>0.0703</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>16.9701</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5709.1399</v>
       </c>
       <c r="F11" s="1">
         <v>488.0824</v>
       </c>
       <c r="G11" s="1">
-        <v>6197.2222</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>96382.27039999999</v>
       </c>
       <c r="I11" s="1">
-        <v>100242.9804</v>
+        <v>7796.3691</v>
       </c>
       <c r="J11" s="1">
-        <v>16.1755</v>
+        <v>104178.6395</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90242.9804</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.8068</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-8282.8063</v>
       </c>
-      <c r="O11" s="1">
-        <v>11052.8938</v>
-      </c>
-      <c r="P11" s="1">
-        <v>115675.0192</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0235</v>
+        <v>0.0263</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.9905</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6197.2222</v>
       </c>
       <c r="F12" s="1">
         <v>265.7075</v>
       </c>
       <c r="G12" s="1">
-        <v>6462.9298</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>110912.9257</v>
       </c>
       <c r="I12" s="1">
-        <v>105023.1919</v>
+        <v>9513.5628</v>
       </c>
       <c r="J12" s="1">
-        <v>16.2501</v>
+        <v>120426.4885</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>95023.19190000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.3332</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-4780.2115</v>
       </c>
-      <c r="O12" s="1">
-        <v>16272.6824</v>
-      </c>
-      <c r="P12" s="1">
-        <v>131941.029</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0499</v>
+        <v>0.0547</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>18.2369</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6462.9298</v>
       </c>
       <c r="F13" s="1">
         <v>527.6409</v>
       </c>
       <c r="G13" s="1">
-        <v>6990.5707</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>117252.4108</v>
       </c>
       <c r="I13" s="1">
-        <v>114645.7261</v>
+        <v>14733.3513</v>
       </c>
       <c r="J13" s="1">
-        <v>16.4001</v>
+        <v>131985.7621</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>104645.7261</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.1917</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-9622.5342</v>
       </c>
-      <c r="O13" s="1">
-        <v>16650.1481</v>
-      </c>
-      <c r="P13" s="1">
-        <v>143475.1783</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0108</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>19.1395</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6990.5707</v>
       </c>
       <c r="F14" s="1">
         <v>-6990.5707</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>133101.8635</v>
       </c>
       <c r="I14" s="1">
-        <v>114645.7261</v>
+        <v>15110.8171</v>
       </c>
       <c r="J14" s="1">
-        <v>16.4001</v>
+        <v>148212.6806</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>104645.7261</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.9696</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>133101.8635</v>
       </c>
-      <c r="O14" s="1">
-        <v>149752.0117</v>
-      </c>
-      <c r="P14" s="1">
-        <v>149752.0117</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0243</v>
+        <v>0.0439</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>14.9338</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>669.6219</v>
       </c>
       <c r="G2" s="1">
-        <v>669.6219</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.104300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.9338</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.104300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>15.9313</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>669.6219</v>
       </c>
       <c r="F3" s="1">
         <v>601.7757</v>
       </c>
       <c r="G3" s="1">
-        <v>1271.3977</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10612.6371</v>
       </c>
       <c r="I3" s="1">
-        <v>19587.0696</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.4059</v>
+        <v>10612.6371</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9587.069600000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.3171</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9587.069600000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>412.9304</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20562.9304</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0308</v>
+        <v>0.0613</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.0207</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1271.3977</v>
       </c>
       <c r="F4" s="1">
         <v>527.0626999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1798.4603</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>21527.8136</v>
       </c>
       <c r="I4" s="1">
-        <v>28558.0456</v>
+        <v>412.9304</v>
       </c>
       <c r="J4" s="1">
-        <v>15.8792</v>
+        <v>21940.7441</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18558.0456</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.5966</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8970.976000000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>1441.9544</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31894.2044</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0436</v>
+        <v>0.0644</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.4608</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1798.4603</v>
       </c>
       <c r="F5" s="1">
         <v>556.667</v>
       </c>
       <c r="G5" s="1">
-        <v>2355.1274</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>31239.6159</v>
       </c>
       <c r="I5" s="1">
-        <v>38277.8974</v>
+        <v>1441.9544</v>
       </c>
       <c r="J5" s="1">
-        <v>16.253</v>
+        <v>32681.5704</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28277.8974</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.7234</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9719.8518</v>
       </c>
-      <c r="O5" s="1">
-        <v>1722.1026</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42631.1363</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0176</v>
+        <v>0.0232</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>16.886</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2355.1274</v>
       </c>
       <c r="F6" s="1">
         <v>694.1906</v>
       </c>
       <c r="G6" s="1">
-        <v>3049.318</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51223.9683</v>
+        <v>39562.6074</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>1722.1026</v>
       </c>
       <c r="J6" s="1">
-        <v>16.3971</v>
+        <v>41284.71</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.9842</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11722.1026</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51223.9683</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0267</v>
+        <v>-0.0327</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.59</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3049.318</v>
       </c>
       <c r="F7" s="1">
         <v>510.6695</v>
       </c>
       <c r="G7" s="1">
-        <v>3559.9875</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>53359.4057</v>
       </c>
       <c r="I7" s="1">
-        <v>58982.6766</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.5682</v>
+        <v>53359.4057</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48982.6766</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.0635</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8982.676600000001</v>
       </c>
-      <c r="O7" s="1">
-        <v>1017.3234</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63312.8327</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0341</v>
+        <v>0.0405</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>15.0121</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3559.9875</v>
       </c>
       <c r="F8" s="1">
         <v>733.8962</v>
       </c>
       <c r="G8" s="1">
-        <v>4293.8837</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>64125.7182</v>
+        <v>53165.5653</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>1017.3234</v>
       </c>
       <c r="J8" s="1">
-        <v>16.3023</v>
+        <v>54182.8887</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>16.854</v>
+      </c>
+      <c r="M8" s="1">
         <v>3.57</v>
       </c>
-      <c r="L8" s="1">
-        <v>11438.2398</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>420.9165</v>
+        <v>9797.458699999999</v>
       </c>
       <c r="O8" s="1">
-        <v>11438.2398</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>75563.958</v>
+        <v>-1219.8647</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0307</v>
+        <v>-0.1448</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>15.3645</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4293.8837</v>
       </c>
       <c r="F9" s="1">
         <v>1223.2569</v>
       </c>
       <c r="G9" s="1">
-        <v>5517.1406</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>65631.1538</v>
       </c>
       <c r="I9" s="1">
-        <v>88794.7308</v>
+        <v>9797.458699999999</v>
       </c>
       <c r="J9" s="1">
-        <v>16.0943</v>
+        <v>75428.61259999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>78794.7308</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.3505</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-18794.7308</v>
       </c>
-      <c r="O9" s="1">
-        <v>2643.509</v>
-      </c>
-      <c r="P9" s="1">
-        <v>86971.9001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0165</v>
+        <v>0.1752</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>16.4953</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5517.1406</v>
       </c>
       <c r="F10" s="1">
         <v>308.2746</v>
       </c>
       <c r="G10" s="1">
-        <v>5825.4153</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>90534.6226</v>
       </c>
       <c r="I10" s="1">
-        <v>93879.8135</v>
+        <v>1002.7279</v>
       </c>
       <c r="J10" s="1">
-        <v>16.1156</v>
+        <v>91537.3505</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>83879.8135</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.2035</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-5085.0827</v>
       </c>
-      <c r="O10" s="1">
-        <v>7558.4264</v>
-      </c>
-      <c r="P10" s="1">
-        <v>103151.7433</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.06370000000000001</v>
+        <v>0.07149999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>16.9701</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5825.4153</v>
       </c>
       <c r="F11" s="1">
         <v>514.2709</v>
       </c>
       <c r="G11" s="1">
-        <v>6339.6862</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>98345.24310000001</v>
       </c>
       <c r="I11" s="1">
-        <v>102607.0429</v>
+        <v>5917.6452</v>
       </c>
       <c r="J11" s="1">
-        <v>16.1849</v>
+        <v>104262.8883</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92607.0429</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.8971</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-8727.2294</v>
       </c>
-      <c r="O11" s="1">
-        <v>8831.196900000001</v>
-      </c>
-      <c r="P11" s="1">
-        <v>115858.4136</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0239</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.9905</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6339.6862</v>
       </c>
       <c r="F12" s="1">
         <v>288.8716</v>
       </c>
       <c r="G12" s="1">
-        <v>6628.5578</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>113462.6322</v>
       </c>
       <c r="I12" s="1">
-        <v>107803.9874</v>
+        <v>7190.4158</v>
       </c>
       <c r="J12" s="1">
-        <v>16.2636</v>
+        <v>120653.048</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>97803.9874</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.4273</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-5196.9445</v>
       </c>
-      <c r="O12" s="1">
-        <v>13634.2524</v>
-      </c>
-      <c r="P12" s="1">
-        <v>132266.8774</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0509</v>
+        <v>0.0559</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>18.2369</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6628.5578</v>
       </c>
       <c r="F13" s="1">
         <v>559.7322</v>
       </c>
       <c r="G13" s="1">
-        <v>7188.29</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>120257.2845</v>
       </c>
       <c r="I13" s="1">
-        <v>118011.7679</v>
+        <v>11993.4713</v>
       </c>
       <c r="J13" s="1">
-        <v>16.4172</v>
+        <v>132250.7558</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>108011.7679</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.2949</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10207.7805</v>
       </c>
-      <c r="O13" s="1">
-        <v>13426.4719</v>
-      </c>
-      <c r="P13" s="1">
-        <v>143838.5862</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.011</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>19.1395</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7188.29</v>
       </c>
       <c r="F14" s="1">
         <v>-7188.29</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>136866.4799</v>
       </c>
       <c r="I14" s="1">
-        <v>118011.7679</v>
+        <v>11785.6908</v>
       </c>
       <c r="J14" s="1">
-        <v>16.4172</v>
+        <v>148652.1707</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>108011.7679</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.0261</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>136866.4799</v>
       </c>
-      <c r="O14" s="1">
-        <v>150292.9518</v>
-      </c>
-      <c r="P14" s="1">
-        <v>150292.9518</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.023</v>
+        <v>0.045</v>
       </c>
     </row>
   </sheetData>
@@ -4477,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>19.0879</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.6174</v>
+        <v>15.3329</v>
       </c>
       <c r="D3" s="1">
-        <v>16.3688</v>
+        <v>14.8569</v>
       </c>
       <c r="E3" s="1">
-        <v>16.3845</v>
+        <v>14.9138</v>
       </c>
       <c r="F3" s="1">
-        <v>16.4001</v>
+        <v>14.9696</v>
       </c>
       <c r="G3" s="1">
-        <v>16.4172</v>
+        <v>15.0261</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2724</v>
       </c>
       <c r="C4" s="3">
-        <v>0.276</v>
+        <v>0.3981</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2597</v>
+        <v>0.3858</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2642</v>
+        <v>0.3902</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2687</v>
+        <v>0.3948</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2731</v>
+        <v>0.3985</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2024</v>
       </c>
       <c r="C5" s="3">
-        <v>0.08550000000000001</v>
+        <v>0.2485</v>
       </c>
       <c r="D5" s="3">
-        <v>0.08790000000000001</v>
+        <v>0.2388</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0883</v>
+        <v>0.2415</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0886</v>
+        <v>0.2442</v>
       </c>
       <c r="G5" s="3">
-        <v>0.089</v>
+        <v>0.2464</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.2455</v>
       </c>
       <c r="C6" s="4">
-        <v>2.9888</v>
+        <v>1.5206</v>
       </c>
       <c r="D6" s="4">
-        <v>2.7233</v>
+        <v>1.5301</v>
       </c>
       <c r="E6" s="4">
-        <v>2.7629</v>
+        <v>1.5319</v>
       </c>
       <c r="F6" s="4">
-        <v>2.8025</v>
+        <v>1.5338</v>
       </c>
       <c r="G6" s="4">
-        <v>2.8412</v>
+        <v>1.5346</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.5306</v>
+        <v>0.2701</v>
       </c>
       <c r="D7" s="3">
-        <v>0.5379</v>
+        <v>0.5028</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5386</v>
+        <v>0.5031</v>
       </c>
       <c r="F7" s="3">
-        <v>0.5394</v>
+        <v>0.5034</v>
       </c>
       <c r="G7" s="3">
-        <v>0.5401</v>
+        <v>0.5023</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>11625.4689</v>
+        <v>9798.862800000001</v>
       </c>
       <c r="D8" s="1">
-        <v>11016.7554</v>
+        <v>9563.3539</v>
       </c>
       <c r="E8" s="1">
-        <v>11155.3864</v>
+        <v>9659.4668</v>
       </c>
       <c r="F8" s="1">
-        <v>11295.8742</v>
+        <v>9756.5432</v>
       </c>
       <c r="G8" s="1">
-        <v>11438.2398</v>
+        <v>9797.458699999999</v>
       </c>
     </row>
   </sheetData>
